--- a/data/trans_bre/DCD-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/DCD-Habitat-trans_bre.xlsx
@@ -618,7 +618,7 @@
         <v>6.928046389616964</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11.71195321602146</v>
+        <v>11.71195321602147</v>
       </c>
       <c r="F4" s="6" t="n">
         <v>1.23830657061503</v>
@@ -627,7 +627,7 @@
         <v>0.9987884146624056</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.800443920343735</v>
+        <v>0.8004439203437353</v>
       </c>
     </row>
     <row r="5">
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>6.945504043399763</v>
+        <v>6.913078281063835</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>3.668423752426047</v>
+        <v>3.872292423702287</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>8.211697594772287</v>
+        <v>7.98124758727413</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>0.6898572631469785</v>
+        <v>0.6650568593686538</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.4401701442611876</v>
+        <v>0.4416390559064994</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4688498487022954</v>
+        <v>0.4842567286227727</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>14.07824622159204</v>
+        <v>13.92555363750913</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>10.17593234315955</v>
+        <v>10.83615809568726</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>15.29279722774327</v>
+        <v>15.1264690594636</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1.997411682435574</v>
+        <v>2.034105717695324</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.819000700213071</v>
+        <v>2.033541079425493</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.220069098706787</v>
+        <v>1.207084564274908</v>
       </c>
     </row>
     <row r="7">
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>6.691612582975985</v>
+        <v>6.792047652208928</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>2.882496723136736</v>
+        <v>3.068530667931967</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>11.38770120533622</v>
+        <v>11.51259191350179</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.8429050549158439</v>
+        <v>0.8634919849218655</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.3429826989431717</v>
+        <v>0.374378242283169</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8827051985636907</v>
+        <v>0.8886953158171949</v>
       </c>
     </row>
     <row r="9">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>12.2021902201113</v>
+        <v>12.25731033990876</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>8.346027525923585</v>
+        <v>8.514904469252969</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>17.57402391916632</v>
+        <v>17.54134182428767</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>2.255769979098749</v>
+        <v>2.220445054187086</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.428959174114329</v>
+        <v>1.461178718225476</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.819769258076687</v>
+        <v>1.743690944128204</v>
       </c>
     </row>
     <row r="10">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>5.840260580884314</v>
+        <v>6.206136138779417</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.385623410509813</v>
+        <v>2.146292225196681</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>12.1171900600056</v>
+        <v>12.48740142732872</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>0.8528870505428358</v>
+        <v>0.8812461857209084</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.3180354814735133</v>
+        <v>0.2917979805512407</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8506436433674716</v>
+        <v>0.8963842235942444</v>
       </c>
     </row>
     <row r="12">
@@ -828,22 +828,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>12.59216521069969</v>
+        <v>12.49521900708887</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>8.23939277306205</v>
+        <v>7.72976168115693</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>19.44387904522689</v>
+        <v>19.5746595951425</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>3.159757055941057</v>
+        <v>3.056416494485987</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.862900177027784</v>
+        <v>1.674345158279461</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.911905784519597</v>
+        <v>1.963472306003359</v>
       </c>
     </row>
     <row r="13">
@@ -864,7 +864,7 @@
         <v>7.54460502115214</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>12.87898350699176</v>
+        <v>12.87898350699175</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>1.488867396911215</v>
@@ -873,7 +873,7 @@
         <v>1.059120413253484</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.9140967264235379</v>
+        <v>0.9140967264235376</v>
       </c>
     </row>
     <row r="14">
@@ -884,22 +884,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>6.806901078170206</v>
+        <v>6.752033871457018</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>4.449618034733853</v>
+        <v>5.017314269022462</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>9.664539647644757</v>
+        <v>9.66069925553194</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.8930346528444643</v>
+        <v>0.8667175779756792</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.5213969588869404</v>
+        <v>0.585317981734271</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6093842390384742</v>
+        <v>0.6299586814786051</v>
       </c>
     </row>
     <row r="15">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>12.28748479916758</v>
+        <v>12.50459069018639</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>10.32531989000737</v>
+        <v>10.52794663206539</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>15.94278229617185</v>
+        <v>15.92499377784868</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>2.301005862793442</v>
+        <v>2.397690400269991</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.747948677731511</v>
+        <v>1.780155894107549</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.287599611796592</v>
+        <v>1.296598234189968</v>
       </c>
     </row>
     <row r="16">
@@ -966,22 +966,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>8.079510741260677</v>
+        <v>8.270487712896021</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>4.814562465748272</v>
+        <v>4.843351994755317</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>12.05133336774585</v>
+        <v>12.15722255889905</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>1.093320192815816</v>
+        <v>1.124772895003243</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.6413873410012666</v>
+        <v>0.6509245064370677</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8823372727201214</v>
+        <v>0.8860909273328826</v>
       </c>
     </row>
     <row r="18">
@@ -992,22 +992,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>11.12261120453878</v>
+        <v>11.20314533470729</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.649319168952053</v>
+        <v>7.781923213065438</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>15.59491893536412</v>
+        <v>15.36411793667974</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>1.833066491864138</v>
+        <v>1.863028058277412</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.228586685578247</v>
+        <v>1.27983718302036</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.290804517108208</v>
+        <v>1.265501239277248</v>
       </c>
     </row>
     <row r="19">
